--- a/Document/ServerClouds.xlsx
+++ b/Document/ServerClouds.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Hung\Code\JS\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Hung\Code\JS\Common\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Google clouds" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>Service</t>
   </si>
@@ -276,12 +276,21 @@
 flush privileges;
 exit</t>
   </si>
+  <si>
+    <t>Mysql8.0</t>
+  </si>
+  <si>
+    <t>Abc@@123HH</t>
+  </si>
+  <si>
+    <t>cimysql80</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +311,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -325,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -346,6 +360,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,8 +605,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E16" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A3:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E20" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A3:E20"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Service" dataDxfId="21"/>
     <tableColumn id="2" name="Account" dataDxfId="20"/>
@@ -906,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -1033,6 +1050,45 @@
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1076,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1199,7 +1255,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
